--- a/06_Statistical_Preparation/KFactors_by_coupling/tau_Lq.xlsx
+++ b/06_Statistical_Preparation/KFactors_by_coupling/tau_Lq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crisf\Downloads\Nueva carpeta (7)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB85616-D5CA-4E4D-8ABF-CFF2C94364CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4479E57-9273-4006-A493-A77CADBADAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{936B0774-7D29-4A9D-A525-91C1BDE09DC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{936B0774-7D29-4A9D-A525-91C1BDE09DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,128 +500,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85D8C1F-0C9C-4324-9C31-4CAB11EE0E07}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="2">
         <v>1250</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>1500</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>1750</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2000</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2250</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1">
         <v>2500</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0.25</v>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.9400000000000001E-2</v>
+        <v>1.9222546161321671E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9358358795285902E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9314641744548288E-2</v>
       </c>
       <c r="E2" s="4">
-        <v>1.9199999999999998E-2</v>
+        <v>1.9281045751633988E-2</v>
       </c>
       <c r="F2" s="4">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9228221265319641E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>0.5</v>
+        <v>1.9287399716847571E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.9203177043300025E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>7.7299999999999994E-2</v>
+        <v>7.7035957240038866E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>7.7100000000000002E-2</v>
+        <v>7.7346137058053252E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>7.7200000000000005E-2</v>
+        <v>7.707820954254796E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7178649237472766E-2</v>
       </c>
       <c r="F3" s="4">
-        <v>7.6600000000000001E-2</v>
+        <v>7.6995693938390189E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>7.7100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
+        <v>7.6592732420953269E-2</v>
+      </c>
+      <c r="H3">
+        <v>7.7056110684089171E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0.30890000000000001</v>
+        <v>0.30767735665694851</v>
       </c>
       <c r="C4" s="4">
-        <v>0.30859999999999999</v>
+        <v>0.30886075949367087</v>
       </c>
       <c r="D4" s="4">
-        <v>0.309</v>
+        <v>0.30857517625840303</v>
       </c>
       <c r="E4" s="4">
-        <v>0.30769999999999997</v>
+        <v>0.30904139433551198</v>
       </c>
       <c r="F4" s="4">
-        <v>0.30740000000000001</v>
+        <v>0.30771778734680355</v>
       </c>
       <c r="G4" s="4">
-        <v>0.30759999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>1.5</v>
+        <v>0.30740915526191603</v>
+      </c>
+      <c r="H4">
+        <v>0.30758390981296441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>0.69489999999999996</v>
+        <v>0.69582118561710393</v>
       </c>
       <c r="C5" s="4">
-        <v>0.69420000000000004</v>
+        <v>0.69489305979921434</v>
       </c>
       <c r="D5" s="4">
-        <v>0.69389999999999996</v>
+        <v>0.69421216592884072</v>
       </c>
       <c r="E5" s="4">
-        <v>0.69479999999999997</v>
+        <v>0.69389978213507619</v>
       </c>
       <c r="F5" s="4">
-        <v>0.69369999999999998</v>
+        <v>0.6947664789665452</v>
       </c>
       <c r="G5" s="4">
-        <v>0.69340000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.69372345445965078</v>
+      </c>
+      <c r="H5">
+        <v>0.69344094286446323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1.8</v>
       </c>
@@ -617,97 +658,112 @@
       <c r="G6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2</v>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>1.2296</v>
+        <v>1.2361516034985423</v>
       </c>
       <c r="C7" s="4">
-        <v>1.2338</v>
+        <v>1.2295940637276299</v>
       </c>
       <c r="D7" s="4">
-        <v>1.2358</v>
+        <v>1.2338088211182159</v>
       </c>
       <c r="E7" s="4">
-        <v>1.2254</v>
+        <v>1.2358387799564272</v>
       </c>
       <c r="F7" s="4">
-        <v>1.2302999999999999</v>
+        <v>1.225405763497847</v>
       </c>
       <c r="G7" s="4">
-        <v>1.2343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>2.5</v>
+        <v>1.2302973100519112</v>
+      </c>
+      <c r="H7">
+        <v>1.2343069433768896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1.9261999999999999</v>
+        <v>1.9241982507288629</v>
       </c>
       <c r="C8" s="4">
-        <v>1.9331</v>
+        <v>1.9262330859886514</v>
       </c>
       <c r="D8" s="4">
-        <v>1.9379</v>
+        <v>1.9331037875061485</v>
       </c>
       <c r="E8" s="4">
-        <v>1.9260999999999999</v>
+        <v>1.9379084967320261</v>
       </c>
       <c r="F8" s="4">
-        <v>1.9297</v>
+        <v>1.9261344816164292</v>
       </c>
       <c r="G8" s="4">
-        <v>1.9267000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>3</v>
+        <v>1.9296838131193961</v>
+      </c>
+      <c r="H8">
+        <v>1.9267230335639254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7707999999999999</v>
+        <v>2.7648202137998052</v>
       </c>
       <c r="C9" s="4">
-        <v>2.7644000000000002</v>
+        <v>2.7708424268878216</v>
       </c>
       <c r="D9" s="4">
-        <v>2.7723</v>
+        <v>2.7643876045253317</v>
       </c>
       <c r="E9" s="4">
-        <v>2.7707999999999999</v>
+        <v>2.7723311546840961</v>
       </c>
       <c r="F9" s="4">
-        <v>2.7782</v>
+        <v>2.7707850281550179</v>
       </c>
       <c r="G9" s="4">
-        <v>2.7786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7781972628598397</v>
+      </c>
+      <c r="H9">
+        <v>2.7786318216756341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3.5</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7707999999999999</v>
+        <v>3.7541302235179783</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7644000000000002</v>
+        <v>3.7769532955041467</v>
       </c>
       <c r="D10" s="4">
-        <v>2.7723</v>
+        <v>3.7825873093949824</v>
       </c>
       <c r="E10" s="4">
-        <v>2.7707999999999999</v>
+        <v>3.7941176470588238</v>
       </c>
       <c r="F10" s="4">
-        <v>2.7782</v>
+        <v>3.7827095064590921</v>
       </c>
       <c r="G10" s="4">
-        <v>2.7786</v>
+        <v>3.7796130250117979</v>
+      </c>
+      <c r="H10">
+        <v>3.7791442480143482</v>
       </c>
     </row>
   </sheetData>
